--- a/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
+++ b/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB3EE76-B6E8-41B2-90B4-529D5F85E3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F99E3C-962F-45E6-81A1-3226E8F22444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="154">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,14 @@
   </si>
   <si>
     <t>좋아요 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,13 +862,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -881,13 +892,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED668F-73BB-4F87-BA8D-3500BB1764BE}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J135" sqref="J135"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,42 +1236,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27">
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>44476</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1461,9 +1469,11 @@
         <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
         <v>37</v>
@@ -1484,9 +1494,11 @@
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
         <v>37</v>
@@ -1526,141 +1538,141 @@
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="11" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>15</v>
@@ -1679,13 +1691,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>15</v>
@@ -1702,201 +1714,199 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
         <v>0</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="7" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="9">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2000</v>
+      </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1905,287 +1915,287 @@
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="10" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>1</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f>C$25</f>
-        <v>게시글 번호</v>
-      </c>
-      <c r="D35" s="8" t="str">
-        <f t="shared" ref="D35" si="0">D$25</f>
-        <v>number</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>C$26</f>
+        <v>게시글 번호</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" ref="D36" si="0">D$26</f>
+        <v>number</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>3</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>12</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="7" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>1</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="8" t="str">
-        <f>C$25</f>
-        <v>게시글 번호</v>
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>116</v>
+        <v>89</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f>C$26</f>
+        <v>게시글 번호</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="9">
-        <v>260</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="K42" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="9">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
@@ -2198,18 +2208,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E44" s="9">
+        <v>36</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
         <v>37</v>
@@ -2221,20 +2233,18 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="9">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
         <v>37</v>
@@ -2246,18 +2256,20 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
         <v>37</v>
@@ -2265,257 +2277,255 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>7</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="7" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K50" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>1</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="9">
-        <v>100</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>3</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="9">
+        <v>50</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D56" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I56" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>1</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="9">
-        <v>260</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="9">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
@@ -2528,18 +2538,20 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E59" s="9">
+        <v>36</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9" t="s">
         <v>37</v>
@@ -2551,20 +2563,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="9">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9" t="s">
         <v>37</v>
@@ -2574,121 +2584,119 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>5</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13" t="s">
+      <c r="B63" s="12"/>
+      <c r="C63" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="7" t="s">
+      <c r="D63" s="13"/>
+      <c r="E63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>1</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>15</v>
@@ -2699,19 +2707,23 @@
         <v>37</v>
       </c>
       <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>15</v>
@@ -2731,17 +2743,15 @@
         <v>4</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
         <v>37</v>
@@ -2751,79 +2761,89 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>4</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="9">
+        <v>50</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="7" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="16"/>
-    </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
-        <v>1</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2838,7 +2858,7 @@
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2853,7 +2873,7 @@
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2868,7 +2888,7 @@
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2881,129 +2901,119 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>5</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="7" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="F79" s="14"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
-        <v>1</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="9">
-        <v>50</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E82" s="9">
-        <v>100</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="G82" s="9" t="s">
         <v>37</v>
       </c>
@@ -3012,121 +3022,119 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>3</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="9">
+        <v>100</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="10" t="s">
+      <c r="D85" s="13"/>
+      <c r="E85" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="16"/>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
+      <c r="F85" s="14"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E86" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H86" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J86" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K86" s="10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="9">
-        <v>1</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>15</v>
@@ -3142,122 +3150,124 @@
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>3</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13" t="s">
+      <c r="B91" s="12"/>
+      <c r="C91" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="7" t="s">
+      <c r="D91" s="13"/>
+      <c r="E91" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="16"/>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
-        <v>1</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="K93" s="9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>17</v>
@@ -3276,169 +3286,167 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E95" s="9">
+        <v>50</v>
+      </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="9">
-        <v>200</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K96" s="9"/>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>5</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="9">
+        <v>200</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13" t="s">
+      <c r="B99" s="12"/>
+      <c r="C99" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="7" t="s">
+      <c r="D99" s="13"/>
+      <c r="E99" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="16"/>
-    </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="16"/>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D100" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K100" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="9">
-        <v>1</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>15</v>
@@ -3454,332 +3462,332 @@
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="9">
-        <v>200</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="K103" s="9" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E104" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E104" s="9">
+        <v>200</v>
+      </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
+        <v>6</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K104" s="9"/>
-    </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+      <c r="K105" s="9"/>
+    </row>
+    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13" t="s">
+      <c r="B107" s="12"/>
+      <c r="C107" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="7" t="s">
+      <c r="D107" s="13"/>
+      <c r="E107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="16"/>
-    </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="F107" s="14"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I108" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J108" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K108" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
-        <v>1</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="9">
-        <v>100</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-    </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="K110" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
+        <v>3</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="9">
+        <v>100</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13" t="s">
+      <c r="B113" s="12"/>
+      <c r="C113" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="7" t="s">
+      <c r="D113" s="13"/>
+      <c r="E113" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="16"/>
-    </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+      <c r="F113" s="14"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="16"/>
+    </row>
+    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B114" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I113" s="7" t="s">
+      <c r="I114" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J113" s="7" t="s">
+      <c r="J114" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K113" s="7" t="s">
+      <c r="K114" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="9">
-        <v>1</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J116" s="9"/>
       <c r="K116" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>17</v>
@@ -3800,19 +3808,19 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="9" t="s">
@@ -3821,17 +3829,19 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
+      <c r="K118" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>17</v>
@@ -3850,18 +3860,20 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E120" s="9">
+        <v>100</v>
+      </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9" t="s">
         <v>37</v>
@@ -3871,94 +3883,94 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="9">
+        <v>9</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13" t="s">
+      <c r="B123" s="12"/>
+      <c r="C123" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="7" t="s">
+      <c r="D123" s="13"/>
+      <c r="E123" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="16"/>
-    </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+      <c r="F123" s="14"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="16"/>
+    </row>
+    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B124" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E124" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H123" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="I124" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="J124" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K123" s="7" t="s">
+      <c r="K124" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="9">
-        <v>1</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>15</v>
@@ -3966,51 +3978,51 @@
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="H125" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>17</v>
@@ -4031,19 +4043,19 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E128" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9" t="s">
@@ -4052,17 +4064,19 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
+      <c r="K128" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>17</v>
@@ -4081,18 +4095,20 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E130" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E130" s="9">
+        <v>100</v>
+      </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9" t="s">
         <v>37</v>
@@ -4102,115 +4118,113 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="9">
+        <v>8</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13" t="s">
+      <c r="B133" s="12"/>
+      <c r="C133" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D132" s="13"/>
-      <c r="E132" s="7" t="s">
+      <c r="D133" s="13"/>
+      <c r="E133" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F132" s="14"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="16"/>
-    </row>
-    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="F133" s="14"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="16"/>
+    </row>
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E134" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F134" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G134" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="7" t="s">
+      <c r="I134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J133" s="7" t="s">
+      <c r="J134" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K133" s="7" t="s">
+      <c r="K134" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="9">
-        <v>1</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>88</v>
@@ -4232,118 +4246,118 @@
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="9">
+        <v>3</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="17" t="s">
+    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="14" t="s">
+      <c r="B139" s="28"/>
+      <c r="C139" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="7" t="s">
+      <c r="D139" s="16"/>
+      <c r="E139" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="16"/>
-    </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+      <c r="F139" s="14"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="16"/>
+    </row>
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B140" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E140" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F140" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="7" t="s">
+      <c r="I140" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J139" s="7" t="s">
+      <c r="J140" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K139" s="7" t="s">
+      <c r="K140" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="9">
-        <v>1</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>88</v>
@@ -4365,72 +4379,99 @@
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="9">
+        <v>3</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="F84:K84"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="F139:K139"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:K123"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="F133:K133"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:K107"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:K79"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:K91"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:K78"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:K90"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="F106:K106"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="F138:K138"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:K132"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="F112:K112"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:K85"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
+++ b/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F99E3C-962F-45E6-81A1-3226E8F22444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C050E22-6050-432A-BD14-DE5976D212BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="1920" yWindow="2265" windowWidth="21600" windowHeight="11400" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="166">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,54 @@
   </si>
   <si>
     <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 회원 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 회원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 진행 상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이면 탈퇴진행 중, 1이면 탈퇴완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,8 +727,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +753,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -805,12 +866,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,16 +926,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -892,14 +953,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,17 +1295,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED668F-73BB-4F87-BA8D-3500BB1764BE}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
@@ -1236,42 +1319,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19">
+      <c r="H2" s="26"/>
+      <c r="I2" s="27">
         <v>44476</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -1944,135 +2027,135 @@
       <c r="K31" s="9"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="30">
         <v>1</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="30">
         <v>2</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="8" t="str">
+      <c r="C36" s="34" t="str">
         <f>C$26</f>
         <v>게시글 번호</v>
       </c>
-      <c r="D36" s="8" t="str">
+      <c r="D36" s="34" t="str">
         <f t="shared" ref="D36" si="0">D$26</f>
         <v>number</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="30">
         <v>3</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="9">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="E37" s="30">
+        <v>20</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
@@ -3754,7 +3837,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>104</v>
@@ -3780,41 +3863,39 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
-        <v>4</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="A117" s="30">
+        <v>3</v>
+      </c>
+      <c r="B117" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="9">
-        <v>50</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="E117" s="30">
+        <v>200</v>
+      </c>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>17</v>
@@ -3835,19 +3916,19 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E119" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9" t="s">
@@ -3856,17 +3937,19 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
+      <c r="K119" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>17</v>
@@ -3885,171 +3968,169 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E121" s="9">
+        <v>100</v>
+      </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>9</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K121" s="9"/>
-    </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+      <c r="K122" s="9"/>
+    </row>
+    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13" t="s">
+      <c r="B124" s="12"/>
+      <c r="C124" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="7" t="s">
+      <c r="D124" s="13"/>
+      <c r="E124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="16"/>
-    </row>
-    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
+      <c r="F124" s="14"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="16"/>
+    </row>
+    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B125" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D125" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E125" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F125" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H125" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="I125" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="J125" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K124" s="7" t="s">
+      <c r="K125" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="9">
-        <v>1</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="9">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>17</v>
@@ -4070,19 +4151,19 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E129" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9" t="s">
@@ -4091,17 +4172,19 @@
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
+      <c r="K129" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>17</v>
@@ -4120,144 +4203,142 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E131" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E131" s="9">
+        <v>100</v>
+      </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="9" t="s">
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="9">
+        <v>8</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="133" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+      <c r="K132" s="9"/>
+    </row>
+    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13" t="s">
+      <c r="B134" s="12"/>
+      <c r="C134" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="13"/>
-      <c r="E133" s="7" t="s">
+      <c r="D134" s="13"/>
+      <c r="E134" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="16"/>
-    </row>
-    <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+      <c r="F134" s="14"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="16"/>
+    </row>
+    <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B135" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E135" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F135" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G135" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H135" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="7" t="s">
+      <c r="I135" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J134" s="7" t="s">
+      <c r="J135" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K134" s="7" t="s">
+      <c r="K135" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="9">
-        <v>1</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>15</v>
@@ -4273,124 +4354,124 @@
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="9">
+        <v>3</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="27" t="s">
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="14" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="7" t="s">
+      <c r="D140" s="16"/>
+      <c r="E140" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="16"/>
-    </row>
-    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="16"/>
+    </row>
+    <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F141" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G141" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I140" s="7" t="s">
+      <c r="I141" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J140" s="7" t="s">
+      <c r="J141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K140" s="7" t="s">
+      <c r="K141" s="7" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
-        <v>1</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>15</v>
@@ -4406,34 +4487,241 @@
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="9">
+        <v>3</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="32"/>
+      <c r="C146" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="33"/>
+      <c r="E146" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="33"/>
+    </row>
+    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K147" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="30">
+        <v>1</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="30">
+        <v>2</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="30">
+        <v>3</v>
+      </c>
+      <c r="B150" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="30">
+        <v>50</v>
+      </c>
+      <c r="F150" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="30">
+        <v>4</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30">
+        <v>0</v>
+      </c>
+      <c r="K151" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="30">
+        <v>5</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K152" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="F139:K139"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:K123"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="F133:K133"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:K107"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:K79"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:K91"/>
+  <mergeCells count="64">
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="F146:K146"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:K17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A39:B39"/>
@@ -4450,28 +4738,32 @@
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:K79"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:K91"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="F85:K85"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:K107"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:K140"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:K134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
+++ b/TripDiaryDesign/TripDiary 테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C050E22-6050-432A-BD14-DE5976D212BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243332F-5950-42FD-8582-F095E9EBA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2265" windowWidth="21600" windowHeight="11400" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="8" r:id="rId1"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴 회원 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +691,10 @@
   </si>
   <si>
     <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_member_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,16 +727,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,11 +745,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -866,15 +853,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +898,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,13 +913,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -953,36 +943,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1298,8 +1266,8 @@
   <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <pane ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1319,61 +1287,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27">
+      <c r="H2" s="19"/>
+      <c r="I2" s="20">
         <v>44476</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1669,23 +1637,23 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -1823,23 +1791,23 @@
       <c r="K22" s="9"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -2027,154 +1995,154 @@
       <c r="K31" s="9"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
+      <c r="A35" s="9">
         <v>1</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="30">
+      <c r="A36" s="9">
         <v>2</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="34" t="str">
+      <c r="C36" s="8" t="str">
         <f>C$26</f>
         <v>게시글 번호</v>
       </c>
-      <c r="D36" s="34" t="str">
+      <c r="D36" s="8" t="str">
         <f t="shared" ref="D36" si="0">D$26</f>
         <v>number</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="30">
+      <c r="A37" s="9">
         <v>3</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="9">
         <v>20</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="16"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -2388,23 +2356,23 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="13"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
@@ -2517,23 +2485,23 @@
       </c>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="16"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
@@ -2693,23 +2661,23 @@
       <c r="K61" s="9"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="13"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="16"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="17"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -2846,7 +2814,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>100</v>
@@ -2871,23 +2839,23 @@
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="13"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="16"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="17"/>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
@@ -3000,23 +2968,23 @@
       <c r="K77" s="9"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="13"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="16"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="17"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
@@ -3131,23 +3099,23 @@
       <c r="K83" s="9"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="13"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="16"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="17"/>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
@@ -3264,23 +3232,23 @@
       </c>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="13"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="16"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
@@ -3443,23 +3411,23 @@
       <c r="K97" s="9"/>
     </row>
     <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D99" s="13"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="16"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="17"/>
     </row>
     <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
@@ -3550,7 +3518,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>88</v>
@@ -3577,7 +3545,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>44</v>
@@ -3602,7 +3570,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>25</v>
@@ -3626,23 +3594,23 @@
       <c r="K105" s="9"/>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="13"/>
+      <c r="C107" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D107" s="13"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="16"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="17"/>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
@@ -3757,23 +3725,23 @@
       <c r="K111" s="9"/>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13" t="s">
+      <c r="B113" s="13"/>
+      <c r="C113" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="13"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="16"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="17"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
@@ -3863,29 +3831,29 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="30">
+      <c r="A117" s="9">
         <v>3</v>
       </c>
-      <c r="B117" s="34" t="s">
+      <c r="B117" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C117" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="30">
+      <c r="E117" s="9">
         <v>200</v>
       </c>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="30"/>
-      <c r="K117" s="30"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
@@ -3993,7 +3961,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>81</v>
@@ -4017,23 +3985,23 @@
       <c r="K122" s="9"/>
     </row>
     <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D124" s="13"/>
+      <c r="D124" s="14"/>
       <c r="E124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="14"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="16"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
@@ -4097,7 +4065,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>89</v>
@@ -4124,7 +4092,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>78</v>
@@ -4151,7 +4119,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>79</v>
@@ -4178,7 +4146,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>76</v>
@@ -4203,7 +4171,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>80</v>
@@ -4228,7 +4196,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>81</v>
@@ -4252,23 +4220,23 @@
       <c r="K132" s="9"/>
     </row>
     <row r="134" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13" t="s">
+      <c r="B134" s="13"/>
+      <c r="C134" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="13"/>
+      <c r="D134" s="14"/>
       <c r="E134" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F134" s="14"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="16"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="17"/>
     </row>
     <row r="135" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
@@ -4385,23 +4353,23 @@
       </c>
     </row>
     <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="14" t="s">
+      <c r="B140" s="29"/>
+      <c r="C140" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="16"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F140" s="14"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="16"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="17"/>
     </row>
     <row r="141" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
@@ -4518,210 +4486,205 @@
       </c>
     </row>
     <row r="146" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="32"/>
-      <c r="C146" s="31" t="s">
+      <c r="B146" s="29"/>
+      <c r="C146" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="17"/>
+    </row>
+    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="9">
+        <v>1</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="9">
+        <v>2</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="9">
+        <v>3</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="9">
+        <v>50</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="9">
+        <v>4</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9">
+        <v>0</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
+        <v>5</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D146" s="33"/>
-      <c r="E146" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F146" s="31"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="32"/>
-      <c r="J146" s="32"/>
-      <c r="K146" s="33"/>
-    </row>
-    <row r="147" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H147" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I147" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J147" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K147" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="30">
-        <v>1</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" s="34" t="s">
+      <c r="C152" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D148" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I148" s="30"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="30">
-        <v>2</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="30">
-        <v>3</v>
-      </c>
-      <c r="B150" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="30">
-        <v>50</v>
-      </c>
-      <c r="F150" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H150" s="30"/>
-      <c r="I150" s="30"/>
-      <c r="J150" s="30"/>
-      <c r="K150" s="30"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="30">
-        <v>4</v>
-      </c>
-      <c r="B151" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D151" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30"/>
-      <c r="J151" s="30">
-        <v>0</v>
-      </c>
-      <c r="K151" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="30">
-        <v>5</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D152" s="34" t="s">
+      <c r="D152" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
-      <c r="J152" s="30" t="s">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K152" s="30"/>
+      <c r="K152" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="F146:K146"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:K113"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:K140"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:K124"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:K134"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:K107"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A39:B39"/>
@@ -4738,6 +4701,28 @@
     <mergeCell ref="F33:K33"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="F146:K146"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="F79:K79"/>
     <mergeCell ref="A91:B91"/>
@@ -4747,23 +4732,6 @@
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="F85:K85"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:K107"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F113:K113"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:K140"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:K124"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="F134:K134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
